--- a/LBP_ICD_PROC_CODES.xlsx
+++ b/LBP_ICD_PROC_CODES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medcornell-my.sharepoint.com/personal/emm4010_med_cornell_edu/Documents/RASC/Rapid Research Projects/Chronic pain policy ecology/HD2A- LBP/_kayla/codes for manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medcornell-my.sharepoint.com/personal/emm4010_med_cornell_edu/Documents/RASC/Rapid Research Projects/Chronic pain policy ecology/HD2A- LBP/_kayla/codes for manuscript/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9308F2AB-1B90-BC40-A759-AA43EEC0868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9308F2AB-1B90-BC40-A759-AA43EEC0868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1437A41-5E00-7442-8E25-02F15E9045F5}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{858627DC-F195-4A57-A05C-5C3822F142F4}"/>
+    <workbookView xWindow="33580" yWindow="500" windowWidth="33240" windowHeight="20280" xr2:uid="{858627DC-F195-4A57-A05C-5C3822F142F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ICD Codes, LBP" sheetId="1" r:id="rId1"/>
@@ -1191,1206 +1191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DA97C7-4795-4A31-AEB7-BADE86B3C5FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657850" y="190500"/>
-          <a:ext cx="4229100" cy="4857751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Procedure:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Parent classes were</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> general summaries with procedure classes from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>from AHRQ CCS groupings.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>  Most of these are taken for LBP related visits/claims only, but the joint replacements were for any visit (e.g., patients back hurts because they have an affected gait from TKA)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Groupings:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Laminectomy_IVDExcision</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> (CCS 3)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Spinal Stimulators (CCS 5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Spinal Fusion (CCS 158)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Injections and Aspirations... (CCS 156)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Arthrocentesis (CCS 155)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Arthroscopy (CCS 149)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Other Joint and Soft Tissue Procs (CCS 150 + 160 + 162)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Arthroplasty, Knee (CCS 152)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hip Replacement (CCS 153)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Arthroplasty other (CCS 154)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Nonpharm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> group is a combination of sub-groups adapted from methodology published by VA OPCC&amp;CT (Whole Health) on identifying CIH and other non-pharm interventions, and our review.  See other box.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED18F978-ABA4-45E7-B58B-224CF0BE9497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10048875" y="161925"/>
-          <a:ext cx="4229100" cy="5962652"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Procedure</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> for Nonpharm interventions:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Heat/Cold</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97010</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Massage</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97124</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manual Therapy</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97140</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Acupuncture</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97810,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97811,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97813,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97814,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>S8930,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20560,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20561,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Spinal Manipulation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>98940,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>98941,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>98942,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Exercise Therapy</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97110,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97112,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97116,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97150,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97530</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>EMG Biofeedback</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90901,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90875,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90876,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E0746</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Laser</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Therapy</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>S8948</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Psychological therapies</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90832,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90834,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>90837</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pulsed high freq radiowaves/electromagnetic </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E0761</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" i="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Patient Education/Self care management training</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>97535,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>98960,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>S9445,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>96153</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD5245C-102C-479C-8628-4B39420C60BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="104775"/>
-          <a:ext cx="4171950" cy="3124200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Method:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Reviewed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> all "Radiology" CPTs based on range CPT 70010 to 79999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Enhanced list from https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4674321/</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Took electrodiagnostics from https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4899197/#SD1 as a full grouping together</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2692,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D44E0A-E97D-4485-A12C-0E2B9343D949}">
   <dimension ref="A1:A195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3682,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD83D5-742F-4FD4-AA40-39D9BCAFEF1A}">
   <dimension ref="A1:C705"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A197" sqref="A197:A705"/>
     </sheetView>
   </sheetViews>
@@ -11455,7 +10255,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11463,7 +10262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09443DCC-0D7E-4998-AE28-2DF1A29D2069}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -12252,6 +11051,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>